--- a/sources/clothes.xlsx
+++ b/sources/clothes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junjun201\Desktop\衣服数据库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\沈鋆阳\Desktop\shopping-bot-for-clothes-using-bot-framework-master\shopping-bot-for-clothes-using-bot-framework-master\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21EEC9B-5B84-42C2-8A11-7A7D09E437EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1C61B1-5427-4F3F-9AD4-5E46E30C29FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14064" yWindow="1272" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>短袖夏季日系七分袖t恤男士宽松潮牌印花肥佬半袖大码五分袖上衣</t>
-  </si>
-  <si>
     <t>LAY LOW</t>
   </si>
   <si>
@@ -247,6 +244,10 @@
   </si>
   <si>
     <t>奶奶装夏装衬衫中老年人女装60妈妈春秋套装上衣70岁老人衣服太太</t>
+  </si>
+  <si>
+    <t>短袖夏季日系七分袖t恤男士宽松潮牌印花半袖大码五分袖上衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -592,27 +593,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA21" sqref="AA21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="59.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="59.9140625" customWidth="1"/>
+    <col min="10" max="10" width="12.9140625" customWidth="1"/>
+    <col min="12" max="12" width="14.4140625" customWidth="1"/>
+    <col min="13" max="13" width="13.58203125" customWidth="1"/>
     <col min="14" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="12.9140625" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="13.21875" customWidth="1"/>
-    <col min="20" max="20" width="10.77734375" customWidth="1"/>
+    <col min="18" max="18" width="13.25" customWidth="1"/>
+    <col min="20" max="20" width="10.75" customWidth="1"/>
     <col min="21" max="21" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -700,7 +701,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -772,15 +773,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -852,15 +853,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -932,15 +933,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -1012,15 +1013,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -1092,15 +1093,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -1172,15 +1173,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
         <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -1252,15 +1253,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -1332,15 +1333,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -1412,15 +1413,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1492,15 +1493,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1572,15 +1573,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
         <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1652,15 +1653,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
         <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1732,15 +1733,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
         <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1812,15 +1813,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
         <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1892,15 +1893,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
         <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1972,15 +1973,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
         <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2052,15 +2053,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
         <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>61</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2132,15 +2133,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
         <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2212,15 +2213,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
         <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
       </c>
       <c r="D21">
         <v>0</v>

--- a/sources/clothes.xlsx
+++ b/sources/clothes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\沈鋆阳\Desktop\shopping-bot-for-clothes-using-bot-framework-master\shopping-bot-for-clothes-using-bot-framework-master\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1C61B1-5427-4F3F-9AD4-5E46E30C29FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE617E83-BA3E-487A-A9CF-AA6377C512C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -704,10 +704,10 @@
         <v>65</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -784,10 +784,10 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -864,10 +864,10 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -944,10 +944,10 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1024,7 +1024,7 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>36</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>38</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -1264,10 +1264,10 @@
         <v>40</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1344,7 +1344,7 @@
         <v>42</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>7</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -1584,10 +1584,10 @@
         <v>48</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -2064,10 +2064,10 @@
         <v>60</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2296,6 +2296,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sources/clothes.xlsx
+++ b/sources/clothes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\沈鋆阳\Desktop\shopping-bot-for-clothes-using-bot-framework-master\shopping-bot-for-clothes-using-bot-framework-master\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE617E83-BA3E-487A-A9CF-AA6377C512C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5933B686-9A2F-47A0-A415-953A71014941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t xml:space="preserve">id </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -247,6 +247,14 @@
   </si>
   <si>
     <t>短袖夏季日系七分袖t恤男士宽松潮牌印花半袖大码五分袖上衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typ-upper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typ-dress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -613,7 +621,7 @@
     <col min="21" max="21" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,8 +700,15 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -704,10 +719,10 @@
         <v>65</v>
       </c>
       <c r="D2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -772,8 +787,14 @@
       <c r="Z2">
         <v>5</v>
       </c>
+      <c r="AA2">
+        <v>100</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -784,10 +805,10 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -852,8 +873,14 @@
       <c r="Z3">
         <v>0</v>
       </c>
+      <c r="AA3">
+        <v>100</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -932,8 +959,14 @@
       <c r="Z4">
         <v>10</v>
       </c>
+      <c r="AA4">
+        <v>100</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1012,8 +1045,14 @@
       <c r="Z5">
         <v>0</v>
       </c>
+      <c r="AA5">
+        <v>100</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1092,8 +1131,14 @@
       <c r="Z6">
         <v>10</v>
       </c>
+      <c r="AA6">
+        <v>100</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1172,8 +1217,14 @@
       <c r="Z7">
         <v>0</v>
       </c>
+      <c r="AA7">
+        <v>100</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1252,8 +1303,14 @@
       <c r="Z8">
         <v>10</v>
       </c>
+      <c r="AA8">
+        <v>100</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1332,8 +1389,14 @@
       <c r="Z9">
         <v>0</v>
       </c>
+      <c r="AA9">
+        <v>100</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1412,8 +1475,14 @@
       <c r="Z10">
         <v>10</v>
       </c>
+      <c r="AA10">
+        <v>100</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1492,8 +1561,14 @@
       <c r="Z11">
         <v>10</v>
       </c>
+      <c r="AA11">
+        <v>100</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1572,8 +1647,14 @@
       <c r="Z12">
         <v>10</v>
       </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>100</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1652,8 +1733,14 @@
       <c r="Z13">
         <v>10</v>
       </c>
+      <c r="AA13">
+        <v>100</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1732,8 +1819,14 @@
       <c r="Z14">
         <v>0</v>
       </c>
+      <c r="AA14">
+        <v>100</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1812,8 +1905,14 @@
       <c r="Z15">
         <v>10</v>
       </c>
+      <c r="AA15">
+        <v>100</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1892,8 +1991,14 @@
       <c r="Z16">
         <v>0</v>
       </c>
+      <c r="AA16">
+        <v>100</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1972,8 +2077,14 @@
       <c r="Z17">
         <v>0</v>
       </c>
+      <c r="AA17">
+        <v>100</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2052,8 +2163,14 @@
       <c r="Z18">
         <v>0</v>
       </c>
+      <c r="AA18">
+        <v>100</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2132,8 +2249,14 @@
       <c r="Z19">
         <v>0</v>
       </c>
+      <c r="AA19">
+        <v>100</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2212,8 +2335,14 @@
       <c r="Z20">
         <v>0</v>
       </c>
+      <c r="AA20">
+        <v>100</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2290,6 +2419,12 @@
         <v>10</v>
       </c>
       <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>100</v>
+      </c>
+      <c r="AB21">
         <v>0</v>
       </c>
     </row>
